--- a/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
@@ -481,7 +481,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="124" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="115" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
@@ -3311,7 +3310,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="104" customWidth="1" min="2" max="2"/>
     <col width="76" customWidth="1" min="3" max="3"/>
-    <col width="201" customWidth="1" min="4" max="4"/>
     <col width="73" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -6627,7 +6625,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="55" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
@@ -7052,7 +7049,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="93" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="207" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="26" customWidth="1" min="7" max="7"/>
@@ -9974,7 +9970,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="101" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="178" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
@@ -12988,7 +12983,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="188" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="23" customWidth="1" min="7" max="7"/>
@@ -16008,7 +16002,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="94" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="122" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -18576,7 +18569,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="84" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="96" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -21088,7 +21080,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="78" customWidth="1" min="2" max="2"/>
     <col width="68" customWidth="1" min="3" max="3"/>
-    <col width="97" customWidth="1" min="4" max="4"/>
     <col width="71" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
@@ -23849,7 +23840,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="85" customWidth="1" min="2" max="2"/>
     <col width="73" customWidth="1" min="3" max="3"/>
-    <col width="201" customWidth="1" min="4" max="4"/>
     <col width="73" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -26597,7 +26587,6 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="125" customWidth="1" min="2" max="2"/>
     <col width="75" customWidth="1" min="3" max="3"/>
-    <col width="198" customWidth="1" min="4" max="4"/>
     <col width="75" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="26" customWidth="1" min="7" max="7"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
@@ -3309,8 +3309,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="104" customWidth="1" min="2" max="2"/>
-    <col width="76" customWidth="1" min="3" max="3"/>
-    <col width="73" customWidth="1" min="5" max="5"/>
+    <col width="128" customWidth="1" min="3" max="3"/>
+    <col width="125" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -5767,13 +5767,13 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -21079,8 +21079,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="78" customWidth="1" min="2" max="2"/>
-    <col width="68" customWidth="1" min="3" max="3"/>
-    <col width="71" customWidth="1" min="5" max="5"/>
+    <col width="120" customWidth="1" min="3" max="3"/>
+    <col width="123" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -23839,8 +23839,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="85" customWidth="1" min="2" max="2"/>
-    <col width="73" customWidth="1" min="3" max="3"/>
-    <col width="73" customWidth="1" min="5" max="5"/>
+    <col width="125" customWidth="1" min="3" max="3"/>
+    <col width="125" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -24473,7 +24473,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -24548,13 +24548,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -24629,13 +24629,13 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -24710,13 +24710,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
@@ -26224,13 +26224,13 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -26471,13 +26471,13 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -26586,8 +26586,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="125" customWidth="1" min="2" max="2"/>
-    <col width="75" customWidth="1" min="3" max="3"/>
-    <col width="75" customWidth="1" min="5" max="5"/>
+    <col width="127" customWidth="1" min="3" max="3"/>
+    <col width="127" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="26" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
@@ -27874,13 +27874,13 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
         </is>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -27955,13 +27955,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
         </is>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D18" s="4" t="n"/>
@@ -28117,13 +28117,13 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -28198,7 +28198,7 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -28208,7 +28208,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -29522,13 +29522,13 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
         </is>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -29684,13 +29684,13 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -29765,13 +29765,13 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -29846,13 +29846,13 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">

--- a/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25_archive.xlsx
@@ -3309,8 +3309,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="104" customWidth="1" min="2" max="2"/>
-    <col width="128" customWidth="1" min="3" max="3"/>
-    <col width="125" customWidth="1" min="5" max="5"/>
+    <col width="180" customWidth="1" min="3" max="3"/>
+    <col width="177" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -5767,13 +5767,13 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -21079,8 +21079,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="78" customWidth="1" min="2" max="2"/>
-    <col width="120" customWidth="1" min="3" max="3"/>
-    <col width="123" customWidth="1" min="5" max="5"/>
+    <col width="172" customWidth="1" min="3" max="3"/>
+    <col width="175" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -23839,8 +23839,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="85" customWidth="1" min="2" max="2"/>
-    <col width="125" customWidth="1" min="3" max="3"/>
-    <col width="125" customWidth="1" min="5" max="5"/>
+    <col width="177" customWidth="1" min="3" max="3"/>
+    <col width="177" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -24473,7 +24473,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -24548,13 +24548,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -24629,13 +24629,13 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -24710,13 +24710,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
@@ -26224,13 +26224,13 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -26471,13 +26471,13 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -26586,8 +26586,8 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="125" customWidth="1" min="2" max="2"/>
-    <col width="127" customWidth="1" min="3" max="3"/>
-    <col width="127" customWidth="1" min="5" max="5"/>
+    <col width="179" customWidth="1" min="3" max="3"/>
+    <col width="179" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="26" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
@@ -27874,13 +27874,13 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
         </is>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -27955,13 +27955,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
         </is>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D18" s="4" t="n"/>
@@ -28117,13 +28117,13 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -28198,7 +28198,7 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -28208,7 +28208,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -29522,13 +29522,13 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
         </is>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -29684,13 +29684,13 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -29765,13 +29765,13 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -29846,13 +29846,13 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+          <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
